--- a/Assets/kenji/Excel/MonstersData/MonsterDTSO.xlsx
+++ b/Assets/kenji/Excel/MonstersData/MonsterDTSO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenji\Documents\GitHub\-O-BAR--YUSYA\Assets\kenji\Excel\MonstersData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F238CE23-53FD-4EB5-8966-D732E454B2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816FA59-BCE5-40DB-B342-35D035C7CBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{25ACD1DE-4A66-4CDC-8277-49E55D22682B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25ACD1DE-4A66-4CDC-8277-49E55D22682B}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル1" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>monster</t>
     <phoneticPr fontId="1"/>
@@ -98,21 +98,6 @@
     <t>列5</t>
   </si>
   <si>
-    <t>monster</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>Drop(1)</t>
-  </si>
-  <si>
-    <t>Drop(2)</t>
-  </si>
-  <si>
     <t>R1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -130,6 +115,22 @@
   </si>
   <si>
     <t>R5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DropM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DropC</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -183,18 +184,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -225,27 +232,29 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{95A2348A-7C95-41FE-AC18-D299BA9435E6}" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="6">
-    <queryTableFields count="5">
+  <queryTableRefresh nextId="7" unboundColumnsRight="1">
+    <queryTableFields count="6">
       <queryTableField id="1" name="列1" tableColumnId="1"/>
       <queryTableField id="2" name="列2" tableColumnId="2"/>
       <queryTableField id="3" name="列3" tableColumnId="3"/>
       <queryTableField id="4" name="列4" tableColumnId="4"/>
       <queryTableField id="5" name="列5" tableColumnId="5"/>
+      <queryTableField id="6" dataBound="0" tableColumnId="6"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3DCF168-89EC-40F1-B21A-9044154CC712}" name="テーブル1_1" displayName="テーブル1_1" ref="A1:E20" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E20" xr:uid="{B3DCF168-89EC-40F1-B21A-9044154CC712}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1F6F4140-F5C3-4557-A2DF-C946A5717528}" uniqueName="1" name="R1" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{BD9FF36D-5A25-47F4-8CF8-31E64F9540C9}" uniqueName="2" name="R2" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C5808921-08FC-4524-BEB4-D6D611B3D282}" uniqueName="3" name="R3" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{88C4AD99-95B5-4364-9C72-2265107074F6}" uniqueName="4" name="R4" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{C0F6E33A-18D6-45CF-81E5-D556ED10E9BB}" uniqueName="5" name="R5" queryTableFieldId="5" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3DCF168-89EC-40F1-B21A-9044154CC712}" name="テーブル1_1" displayName="テーブル1_1" ref="A1:F20" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F20" xr:uid="{B3DCF168-89EC-40F1-B21A-9044154CC712}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1F6F4140-F5C3-4557-A2DF-C946A5717528}" uniqueName="1" name="列1" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BD9FF36D-5A25-47F4-8CF8-31E64F9540C9}" uniqueName="2" name="R1" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C5808921-08FC-4524-BEB4-D6D611B3D282}" uniqueName="3" name="R2" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{88C4AD99-95B5-4364-9C72-2265107074F6}" uniqueName="4" name="R3" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C0F6E33A-18D6-45CF-81E5-D556ED10E9BB}" uniqueName="5" name="R4" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{A22B79E1-5673-4F2D-8F5F-6F9DA2614A3E}" uniqueName="6" name="R5" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -562,50 +571,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85A2851-6FD1-4D06-BCDE-48E5E36AC1AE}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/kenji/Excel/MonstersData/MonsterDTSO.xlsx
+++ b/Assets/kenji/Excel/MonstersData/MonsterDTSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenji\Documents\GitHub\-O-BAR--YUSYA\Assets\kenji\Excel\MonstersData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816FA59-BCE5-40DB-B342-35D035C7CBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A497B2-5F88-420B-BA07-3031CBB8503F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25ACD1DE-4A66-4CDC-8277-49E55D22682B}"/>
   </bookViews>
@@ -184,14 +184,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85A2851-6FD1-4D06-BCDE-48E5E36AC1AE}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -623,7 +620,7 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -643,7 +640,7 @@
       <c r="E3">
         <v>50</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -651,55 +648,6 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/kenji/Excel/MonstersData/MonsterDTSO.xlsx
+++ b/Assets/kenji/Excel/MonstersData/MonsterDTSO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenji\Documents\GitHub\-O-BAR--YUSYA\Assets\kenji\Excel\MonstersData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A497B2-5F88-420B-BA07-3031CBB8503F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AF272E-4EA9-40F9-B861-13E91C68A7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25ACD1DE-4A66-4CDC-8277-49E55D22682B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{25ACD1DE-4A66-4CDC-8277-49E55D22682B}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル1" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>monster</t>
     <phoneticPr fontId="1"/>
@@ -99,39 +99,156 @@
   </si>
   <si>
     <t>R1</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>R2</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>R3</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R32</t>
   </si>
   <si>
     <t>R4</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>R5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>DF</t>
   </si>
   <si>
     <t>DropM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DropC</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Categoly</t>
+  </si>
+  <si>
+    <t>DropC1</t>
+  </si>
+  <si>
+    <t>DropC2</t>
+  </si>
+  <si>
+    <t>DropC3</t>
+  </si>
+  <si>
+    <t>スライムA</t>
+  </si>
+  <si>
+    <t>スライム</t>
+  </si>
+  <si>
+    <t>ゼラチン</t>
+  </si>
+  <si>
+    <t>小麦</t>
+  </si>
+  <si>
+    <t>ミルク</t>
+  </si>
+  <si>
+    <t>スライムB</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>お米　</t>
+  </si>
+  <si>
+    <t>魚</t>
+  </si>
+  <si>
+    <t>スライムC</t>
+  </si>
+  <si>
+    <t>赤スライム</t>
+  </si>
+  <si>
+    <t>イチゴ</t>
+  </si>
+  <si>
+    <t>はちみつ</t>
+  </si>
+  <si>
+    <t>狼A</t>
+  </si>
+  <si>
+    <t>魔術師</t>
+  </si>
+  <si>
+    <t>キノコ</t>
+  </si>
+  <si>
+    <t>チョコ</t>
+  </si>
+  <si>
+    <t>トマト</t>
+  </si>
+  <si>
+    <t>狼B</t>
+  </si>
+  <si>
+    <t>魔王の側近</t>
+  </si>
+  <si>
+    <t>パンケーキ</t>
+  </si>
+  <si>
+    <t>魚の塩焼き</t>
+  </si>
+  <si>
+    <t>果物ゼリー</t>
+  </si>
+  <si>
+    <t>狼C</t>
+  </si>
+  <si>
+    <t>狼D</t>
+  </si>
+  <si>
+    <t>赤スライムA</t>
+  </si>
+  <si>
+    <t>赤スライムB</t>
+  </si>
+  <si>
+    <t>赤スライムC</t>
+  </si>
+  <si>
+    <t>赤スライムD</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>R45</t>
   </si>
 </sst>
 </file>
@@ -195,7 +312,28 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -229,29 +367,43 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{95A2348A-7C95-41FE-AC18-D299BA9435E6}" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="1">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="14" unboundColumnsRight="8">
+    <queryTableFields count="13">
       <queryTableField id="1" name="列1" tableColumnId="1"/>
       <queryTableField id="2" name="列2" tableColumnId="2"/>
       <queryTableField id="3" name="列3" tableColumnId="3"/>
       <queryTableField id="4" name="列4" tableColumnId="4"/>
       <queryTableField id="5" name="列5" tableColumnId="5"/>
       <queryTableField id="6" dataBound="0" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="11"/>
+      <queryTableField id="12" dataBound="0" tableColumnId="12"/>
+      <queryTableField id="13" dataBound="0" tableColumnId="13"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3DCF168-89EC-40F1-B21A-9044154CC712}" name="テーブル1_1" displayName="テーブル1_1" ref="A1:F20" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F20" xr:uid="{B3DCF168-89EC-40F1-B21A-9044154CC712}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1F6F4140-F5C3-4557-A2DF-C946A5717528}" uniqueName="1" name="列1" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{BD9FF36D-5A25-47F4-8CF8-31E64F9540C9}" uniqueName="2" name="R1" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C5808921-08FC-4524-BEB4-D6D611B3D282}" uniqueName="3" name="R2" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{88C4AD99-95B5-4364-9C72-2265107074F6}" uniqueName="4" name="R3" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{C0F6E33A-18D6-45CF-81E5-D556ED10E9BB}" uniqueName="5" name="R4" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{A22B79E1-5673-4F2D-8F5F-6F9DA2614A3E}" uniqueName="6" name="R5" queryTableFieldId="6" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3DCF168-89EC-40F1-B21A-9044154CC712}" name="テーブル1_1" displayName="テーブル1_1" ref="A1:M20" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:M20" xr:uid="{B3DCF168-89EC-40F1-B21A-9044154CC712}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{1F6F4140-F5C3-4557-A2DF-C946A5717528}" uniqueName="1" name="R1" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{BD9FF36D-5A25-47F4-8CF8-31E64F9540C9}" uniqueName="2" name="R2" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{C5808921-08FC-4524-BEB4-D6D611B3D282}" uniqueName="3" name="R3" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{88C4AD99-95B5-4364-9C72-2265107074F6}" uniqueName="4" name="R32" queryTableFieldId="4" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{C0F6E33A-18D6-45CF-81E5-D556ED10E9BB}" uniqueName="5" name="R4" queryTableFieldId="5" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{A22B79E1-5673-4F2D-8F5F-6F9DA2614A3E}" uniqueName="6" name="R5" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{E3A96CAD-A2B8-4D02-9EA9-08F201F70D43}" uniqueName="7" name="R6" queryTableFieldId="7" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{8914B1A1-82BC-4A3C-AEB6-60C30A8EE986}" uniqueName="8" name="R7" queryTableFieldId="8" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{D7B6BB92-7FE1-4729-870E-5A71F5A8D995}" uniqueName="9" name="列1" queryTableFieldId="9" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{AF923144-8B0B-4500-A972-E39449D2DD12}" uniqueName="10" name="R12" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{7CC2B174-450A-439D-ABE2-EB12164C4A59}" uniqueName="11" name="R23" queryTableFieldId="11" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{DA2D25CF-3257-43B5-AF64-291069E7BDC9}" uniqueName="12" name="R34" queryTableFieldId="12" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{87177B63-42D5-470B-B52C-E7D8AEEA4338}" uniqueName="13" name="R45" queryTableFieldId="13" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -568,85 +720,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85A2851-6FD1-4D06-BCDE-48E5E36AC1AE}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.796875" customWidth="1"/>
     <col min="2" max="2" width="11.296875" customWidth="1"/>
     <col min="3" max="3" width="13.8984375" customWidth="1"/>
     <col min="4" max="4" width="14.09765625" customWidth="1"/>
     <col min="5" max="5" width="15.8984375" customWidth="1"/>
     <col min="6" max="6" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="14.09765625" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" customWidth="1"/>
+    <col min="11" max="11" width="15.796875" customWidth="1"/>
+    <col min="12" max="12" width="17.3984375" customWidth="1"/>
+    <col min="13" max="13" width="29.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
